--- a/Formulaire denregistrement de la revue.xlsx
+++ b/Formulaire denregistrement de la revue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\log330_tp05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,8 +116,8 @@
 Commentaires dans certaines classes</t>
   </si>
   <si>
-    <t>Choisir un nom de variables explicites
-Respecter convention de nommages (changer nom classes moyenneX_NoteY)</t>
+    <t>commentaire en entête des classes manquantes
+variable line non significatif</t>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
